--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5512048192771084</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945652173913043</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7093023255813952</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4670658682634731</v>
+        <v>0.4820359281437126</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07332092970195493</v>
+        <v>0.07317675945797321</v>
       </c>
       <c r="J2" t="n">
-        <v>957.6030854735581</v>
+        <v>935.932225192455</v>
       </c>
       <c r="K2" t="n">
-        <v>1289325.720487778</v>
+        <v>1157880.590392114</v>
       </c>
       <c r="L2" t="n">
-        <v>1135.484795357374</v>
+        <v>1076.048600385742</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7609111406347402</v>
+        <v>0.785285948120781</v>
       </c>
     </row>
   </sheetData>
